--- a/StructureDefinition-ext-R5-DeviceMetric.calibration.xlsx
+++ b/StructureDefinition-ext-R5-DeviceMetric.calibration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="150">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -407,15 +407,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Describes the type of a metric calibration.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-metric-calibration-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -452,12 +443,6 @@
   </si>
   <si>
     <t>Extension.extension:state.value[x]</t>
-  </si>
-  <si>
-    <t>Describes the state of a metric calibration.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-metric-calibration-state-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:time</t>
@@ -852,8 +837,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="34.86328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="62.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1769,43 +1754,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -1813,13 +1798,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1844,14 +1829,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1920,7 +1905,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2023,7 +2008,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2128,7 +2113,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2171,7 +2156,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2233,7 +2218,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2262,10 +2247,10 @@
         <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2292,32 +2277,32 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
@@ -2328,7 +2313,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -2336,13 +2321,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2367,14 +2352,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2443,7 +2428,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2546,7 +2531,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2651,7 +2636,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2694,7 +2679,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2756,7 +2741,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -2782,13 +2767,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2839,7 +2824,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2851,7 +2836,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>120</v>
@@ -2964,10 +2949,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2990,13 +2975,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3047,7 +3032,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3059,7 +3044,7 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>120</v>
